--- a/data/financial_statements/soci/T.xlsx
+++ b/data/financial_statements/soci/T.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,4108 +605,4186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>31343000000</v>
+      </c>
+      <c r="C2">
         <v>30043000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>29643000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>38105000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>57859000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>31326000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>35740000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>43939000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>45691000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42340000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>40950000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>42779000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>46821000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>44588000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>44957000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>44827000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>47993000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>45739000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>38986000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>38038000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>41676000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>39668000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>39837000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>39365000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>41841000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>40890000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>40520000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>40535000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>42119000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>39091000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>33015000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>32576000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>34439000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>32957000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>32575000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>32476000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>33163000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>32158000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>32075000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>31356000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
         <v>-0.1036</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.0571</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.0756</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0271</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0241</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.0504</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0891</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0457</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.0244</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.0252</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1532</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1785</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1516</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.153</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>-0.0214</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>-0.0337</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>-0.0039</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>-0.0299</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>-0.0169</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>-0.0289</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0066</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.046</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.2273</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.2443</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.223</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.1861</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0135</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0031</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0385</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0248</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0156</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0357</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.018</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0222</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0158</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0146</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>13571000000</v>
+      </c>
+      <c r="C4">
         <v>12201000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>12341000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>17557000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>29129000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13433000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>16158000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>21087000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>22910000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>19839000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>17983000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>19188000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>22736000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>20154000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>20512000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>20739000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>23309000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>20706000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>17458000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>17946000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>21926000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>19169000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>18605000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>18110000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>21425000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>18890000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>18475000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>18400000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>19691000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>17796000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>15079000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>14480000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>18276000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>14336000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>14212000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>13321000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>11964000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>13403000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>13270000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>12554000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>17772000000</v>
+      </c>
+      <c r="C5">
         <v>17842000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>17302000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20548000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>28730000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>17893000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>19582000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>22852000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>22781000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>22501000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>22967000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>23591000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>24085000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>24434000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>24445000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>24088000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>24684000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>25033000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>21528000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>20092000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>19750000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>20499000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>21232000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>21255000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>20416000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>22000000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>22045000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>22135000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>22428000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>21295000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>17936000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>18096000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>16163000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>18621000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>18363000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>19155000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>21199000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>18755000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>18805000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>18802000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>7516000000</v>
+      </c>
+      <c r="C6">
         <v>7202000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7265000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9368000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>13887000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7094000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7581000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9382000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10182000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9266000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>9831000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8760000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10345000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>9584000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>9844000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>9649000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10586000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>9598000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>8684000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>7897000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>9484000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>8650000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>8559000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>8772000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>10482000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>9013000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>8909000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>8441000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>8384000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>9107000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>7467000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7961000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>14765000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>8475000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>8197000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>8260000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>4008000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>7952000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>8121000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>8333000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>-21092000000</v>
+      </c>
+      <c r="C7">
         <v>6012000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4956000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5641000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1877000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6237000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7572000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7661000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-10745000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>6132000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3532000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>7486000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>5321000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7901000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>7500000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>7233000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>6160000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7269000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>6466000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>6201000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1281000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>5807000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>6526000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>6356000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3444000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>6408000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>6560000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>7131000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>7532000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>5923000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>5773000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>5557000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-5289000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>5607000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>5616000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>6278000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>12511000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>6188000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>6113000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>5940000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>1405000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1486000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1702000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1713000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1645000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1661000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1845000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1894000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1972000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2023000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2034000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2078000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>1560000000</v>
+      </c>
+      <c r="C9">
         <v>1420000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1502000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1722000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1747000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1627000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1640000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1870000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1894000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1972000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2041000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2018000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2049000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2083000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2149000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2141000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2112000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2051000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2023000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1771000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1926000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1686000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1395000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1293000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1221000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1224000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1258000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1207000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1143000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1146000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>932000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>899000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>856000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1016000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>881000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>860000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>1459000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>829000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>825000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>827000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-2105000000</v>
+      </c>
+      <c r="C10">
         <v>1242000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1304000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>966000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1571000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>78000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-452000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2403000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-4808000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-2198000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-1034000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-1221000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-2183000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-3015000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-2427000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-1862000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-415000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-1062000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>314000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-60000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-2564000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-833000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-456000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-978000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-253000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-1215000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-1139000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-1124000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-1225000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-1188000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-851000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-829000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-744000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-976000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>490000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-627000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-1085000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-688000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-319000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-610000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-23197000000</v>
+      </c>
+      <c r="C11">
         <v>7254000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6260000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6607000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3448000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6315000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7120000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10064000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-15553000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3934000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2498000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6265000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3138000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4886000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5073000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>5371000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5745000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>6207000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>6780000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>6141000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-1283000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>4974000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>6070000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5378000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3191000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>5193000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>5421000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>6007000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>6307000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>4735000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>4922000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>4728000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-6033000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>4631000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>6106000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>5651000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>11426000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>5500000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>5794000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>5330000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-77000000</v>
+      </c>
+      <c r="C12">
         <v>908000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1509000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1443000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>899000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1296000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1151000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2122000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-2038000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>766000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>935000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1302000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>434000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>937000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1099000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1023000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>615000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1391000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1532000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1382000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-20419000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1851000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2056000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1804000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>676000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1775000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1906000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2122000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>2221000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1657000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1738000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1389000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-2227000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1444000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2485000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1917000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>4262000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1595000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1914000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1557000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>-23120000000</v>
+      </c>
+      <c r="C13">
         <v>6346000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>4751000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5164000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2549000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5019000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5969000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7942000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-13515000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3168000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1563000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>4963000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2704000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3949000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3974000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>4348000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>5130000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>4816000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>5248000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>4759000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>19136000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>3123000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>4014000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>3574000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2515000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>3418000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>3515000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>3885000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>4086000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>3078000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>3184000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>3339000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-3806000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>3187000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>3621000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>3734000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>7164000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>3905000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>3880000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>3773000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>54000000</v>
+      </c>
+      <c r="C14">
         <v>49000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>52000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>48000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>51000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>50000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>56000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>50000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>55000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>54000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>52000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>32000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>362000000</v>
+      </c>
+      <c r="C15">
         <v>373000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>380000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>354000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>347000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>355000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>304000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>392000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>368000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>352000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>282000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>353000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>310000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>249000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>261000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>252000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>272000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>98000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>116000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>97000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>99000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>94000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>99000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>105000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>78000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>90000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>107000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>82000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>80000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>84000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>102000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>76000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>81000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>57000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>74000000</v>
-      </c>
-      <c r="AJ15">
-        <v>82000000</v>
       </c>
       <c r="AK15">
         <v>82000000</v>
       </c>
       <c r="AL15">
+        <v>82000000</v>
+      </c>
+      <c r="AM15">
         <v>91000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>58000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>73000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-23571000000</v>
+      </c>
+      <c r="C16">
         <v>5977000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4105000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>4762000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4992000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5868000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1514000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>7500000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-13938000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2762000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1229000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>4578000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2391000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>3700000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3713000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>4096000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>4858000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>4718000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>5132000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>4662000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>19037000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>3029000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>3915000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>3469000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2437000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>3328000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3408000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3803000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>4006000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2994000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>3082000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>3263000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-3887000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>3130000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>3547000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>3652000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>7082000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>3814000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>3822000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>3700000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>0.83</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.57</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.66</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.82</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.21</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.04</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-1.95</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.39</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.17</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.63</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.33</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.5</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.51</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.66</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.65</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.8100000000000001</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.75</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>3.09</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.49</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.63</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.39</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.54</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.55</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.62</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.65</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.5</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.58</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.62</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-0.77</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.58</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.68</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.7</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1.31</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.72</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.71</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.67</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>0.8</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.65</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.82</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.21</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.04</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-1.95</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.39</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.17</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.63</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.33</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.5</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.51</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.66</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.65</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.8100000000000001</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.75</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3.08</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.49</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.63</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.39</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.54</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.55</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.61</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.65</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.5</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.58</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.61</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-0.77</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.58</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.68</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.7</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1.31</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.72</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.71</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.67</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>7157000000</v>
+      </c>
+      <c r="C19">
         <v>7153000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>7169000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>7184000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7168000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7171000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>7168000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>7161000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>7157000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>7147000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>7145000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>7187000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>7319000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>7327000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>7323000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>7313000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>6778000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>7284000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>6351000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6161000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>6164000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>6162000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>6165000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>6166000000</v>
-      </c>
-      <c r="Y19">
-        <v>6168000000</v>
       </c>
       <c r="Z19">
         <v>6168000000</v>
       </c>
       <c r="AA19">
+        <v>6168000000</v>
+      </c>
+      <c r="AB19">
         <v>6174000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>6172000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>5628000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>5924000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>5204000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>5203000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>5205000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>5198000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>5204000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>5222000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>5368000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>5315000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>5381000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>5513000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>7533000000</v>
+      </c>
+      <c r="C20">
         <v>7647000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>7611000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>7556000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>7199000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>7506000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>7484000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>7482000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>7183000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>7173000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>7170000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>7214000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>7348000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>7356000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>7353000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>7342000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>6806000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>7320000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>6374000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>6180000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>6183000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>6182000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>6184000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>6186000000</v>
-      </c>
-      <c r="Y20">
-        <v>6189000000</v>
       </c>
       <c r="Z20">
         <v>6189000000</v>
       </c>
       <c r="AA20">
+        <v>6189000000</v>
+      </c>
+      <c r="AB20">
         <v>6195000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>6190000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>5646000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>5943000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>5220000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>5219000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>5221000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>5463000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>5220000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>5238000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>5385000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>5331000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>5397000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>5530000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
         <v>0.3782</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.4127</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3902</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3879</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.3458</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.5314</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.5609</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.5515</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.5144</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.548</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.5437</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.5374</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.5143</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.5473</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.5522</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.5282</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.4739</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.5168</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.533</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.5399</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.4879</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.538</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.5441</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.5461</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.5325</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.5448</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.5433</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.5555</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.4693</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.5649999999999999</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.5637</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.5898</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.6392</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.5832000000000001</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.5863</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.5996</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22">
         <v>0.1296</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.1781</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.0742</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.1744</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.2352</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1448</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.0863</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.175</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1136</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.1772</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1668</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1614</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1284</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.1589</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1659</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.163</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0307</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1464</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1638</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1615</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.0823</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1567</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1619</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1759</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1788</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1515</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.1749</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1706</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-0.1536</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1701</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1724</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1933</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.3773</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1924</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1906</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1894</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23">
         <v>0.1574</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1957</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.0596</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.229</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-0.3404</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.0929</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.061</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.1465</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.067</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1096</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.1128</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1198</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.1197</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1357</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1739</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1614</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-0.0308</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1254</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1524</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.1366</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.07630000000000001</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.127</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1338</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1482</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1497</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1211</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1491</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1451</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-0.1752</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.1405</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1874</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.174</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.3445</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.171</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.1806</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24">
         <v>0.1219</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.147</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.0344</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.1707</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.305</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.06519999999999999</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.03</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.107</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.0511</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.083</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.08260000000000001</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.0914</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.1012</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.1032</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.1316</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.1226</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.4568</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0764</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0983</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.0881</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.0582</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.0814</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.08409999999999999</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.09379999999999999</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.0951</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.0766</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.0934</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.1002</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-0.1129</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.095</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.1089</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.1125</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.2136</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.1186</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.1192</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.118</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>10526000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>5320000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>14189000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>22393000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>10694000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>7772000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>16356000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-1611000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>15625000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>12533000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>16977000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>14810000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>16710000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>17303000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>16936000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>16216000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>16875000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>13012000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>12195000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>7352000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>11849000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>12673000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>12483000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>9573000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>12987000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>13136000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>13694000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>14009000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>12188000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>10469000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>10135000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-722000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>10146000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>10166000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>10895000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>17191000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>10803000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>10684000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>10469000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>-21092000000</v>
+      </c>
+      <c r="C26">
         <v>6012000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4956000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5641000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1877000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>6237000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>7572000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>7661000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-10745000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>6132000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3532000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>7486000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5321000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>7901000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>7500000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>7233000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>6160000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>7269000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>6466000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>6201000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1281000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>5807000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>6526000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>6356000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3444000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>6408000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>6560000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>7131000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>7532000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>5923000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>5773000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>5557000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-5289000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>5607000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>5616000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>6278000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>12511000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>6188000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>6113000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>5940000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>-23120000000</v>
+      </c>
+      <c r="C27">
         <v>6346000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4751000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5164000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2549000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>5019000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>5969000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7942000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-13515000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>3168000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1563000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>4963000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2704000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3949000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3974000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>4348000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5130000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>4816000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>5248000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>4759000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>19136000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3123000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>4014000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>3574000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2515000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>3418000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>3515000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>3885000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>4086000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>3078000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>3184000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>3339000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-3806000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>3187000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>3621000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>3734000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>7164000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>3905000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>3880000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>3773000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-35000000</v>
+      </c>
+      <c r="C28">
         <v>53000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-214000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1254000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-4095000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>-23155000000</v>
+      </c>
+      <c r="C29">
         <v>6399000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>4537000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5164000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>5390000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6273000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1874000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>7942000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-13515000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3168000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1563000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>4963000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2704000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3949000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>3974000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>4348000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>5130000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>4816000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>5248000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>4759000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>19136000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>3123000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>4014000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>3574000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>2515000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>3418000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>3515000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>3885000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>4086000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>3078000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>3184000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>3339000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-3806000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>3187000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>3621000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>3734000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>7164000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>3905000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>3880000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>3773000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-3.2</v>
+      </c>
+      <c r="C30">
         <v>0.82</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.6</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.7188</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.4774</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.64</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.77</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.1091</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-1.8865</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.4433</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.2188</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.6906</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.3698</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.539</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.5427</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.5946</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.6838</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.6612</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.8263</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.7724</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3.1046</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.5068</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.6511</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.5796</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.4087</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.5542</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.5693</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.6294999999999999</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.6588000000000001</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.5196</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.6118</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.6417</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-0.7298</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.6131</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.6958</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.7151</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1.3476</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.7347</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.7211</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.6844</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>-3.2</v>
+      </c>
+      <c r="C31">
         <v>0.79</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.59</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.6834</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.5321</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.63</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.76</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.0615</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-1.8796</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.4417</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.218</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.6879999999999999</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.3685</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.5368000000000001</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.5405</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.5921999999999999</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.6803</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.6579</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.8233</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.7701</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>3.0952</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.5052</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.6491</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.5778</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.407</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.5523</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.5674</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.6276</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.6565</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.5179</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.61</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.6398</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-0.6998</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.5834</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.6937</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.7129</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.343</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.7325</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.7189</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.6823</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>-0.0046</v>
+      </c>
+      <c r="C32">
         <v>0.01</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-0.03</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.17</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.54</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>-0.0049</v>
+      </c>
+      <c r="C33">
         <v>0.01</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-0.03</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.18</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.5600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>-3.2353</v>
+      </c>
+      <c r="C34">
         <v>0.8946</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.6329</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.7188</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.7512</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.8748</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.2614</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1.1091</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-1.8865</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.4433</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.2188</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.6906</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.3698</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.539</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.5427</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.5946</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.6838</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.6612</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.8263</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.7724</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>3.1046</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.5068</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.6511</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.5796</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.4087</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.5542</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.5693</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.6294999999999999</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.6588000000000001</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.5196</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.6118</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.6417</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>-0.7298</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.6131</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.6958</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.7151</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>1.3476</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.7347</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.7211</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.6844</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>-3.0738</v>
+      </c>
+      <c r="C35">
         <v>0.8368</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.5961</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.6834</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.836</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.8357</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.2504</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.0615</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-1.8796</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.4417</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.218</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.6879999999999999</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.3685</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.5368000000000001</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.5405</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.5921999999999999</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.6803</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.6579</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.8233</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.7701</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>3.0952</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.5052</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.6491</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.5778</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.407</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.5523</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.5674</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.6276</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.6565</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.5179</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.61</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.6398</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>-0.6998</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.5834</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.6937</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.7129</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>1.343</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.7325</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.7189</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.6823</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>7647000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>7611000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>7556000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>7204000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>7202000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>7200000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7188000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>7176000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>7173000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>7170000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>7214000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>7341000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>7356000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>7353000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>7342000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>7328000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>7320000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>6374000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>6180000000</v>
-      </c>
-      <c r="U36">
-        <v>6182000000</v>
       </c>
       <c r="V36">
         <v>6182000000</v>
       </c>
       <c r="W36">
+        <v>6182000000</v>
+      </c>
+      <c r="X36">
         <v>6184000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>6186000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>6181000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>6189000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>6195000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>6190000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>6187000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>5943000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>5220000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>5219000000</v>
-      </c>
-      <c r="AG36">
-        <v>5214000000</v>
       </c>
       <c r="AH36">
         <v>5214000000</v>
       </c>
       <c r="AI36">
+        <v>5214000000</v>
+      </c>
+      <c r="AJ36">
         <v>5220000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>5238000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>5283000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>5331000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>5397000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>5530000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37">
         <v>0.2756</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.3253</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.3079</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.3069</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.2761</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.369</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.3061</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.3969</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.3163</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.3748</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.3849</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.3778</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.3379</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.3689</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.3338</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.3206</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.1764</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.2987</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.3181</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.3171</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.2288</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.3176</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>0.3242</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>0.3378</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.3326</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.3118</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>0.3171</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>0.3111</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>-0.021</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.3079</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.3121</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.3355</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.5184</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>0.3359</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.3331</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0.3339</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38">
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38">
         <v>0.2748</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.2471</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.2477</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.2259</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.2207</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.2863</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.2945</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.2073</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.2551</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.2554</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.3177</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.2465</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.2517</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.2699</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.2624</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.2352</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.2288</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.2723</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.2185</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.2277</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.2208</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.2689</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.2544</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.1949</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.2181</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.2762</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.2774</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.2068</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.1668</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.2647</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.2477</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.2709</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.2387</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.2851</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.2966</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.2615</v>
       </c>
     </row>
